--- a/lab1/Zeszyt1.xlsx
+++ b/lab1/Zeszyt1.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="16395" windowHeight="8100" xr2:uid="{18495AA2-00CE-48F9-ADB1-A2F9DF24078A}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="16395" windowHeight="8100" activeTab="1" xr2:uid="{18495AA2-00CE-48F9-ADB1-A2F9DF24078A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ni</t>
   </si>
@@ -49,12 +51,33 @@
   <si>
     <t>ilość potrzebnych cykli uczenia</t>
   </si>
+  <si>
+    <t>test 6</t>
+  </si>
+  <si>
+    <t>test 7</t>
+  </si>
+  <si>
+    <t>test 8</t>
+  </si>
+  <si>
+    <t>test 9</t>
+  </si>
+  <si>
+    <t>błąd średniokwadratowy</t>
+  </si>
+  <si>
+    <t>nr. Iteracji</t>
+  </si>
+  <si>
+    <t>nr iteracji</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,8 +86,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +133,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,17 +175,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -318,55 +424,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$I$4:$I$10</c:f>
+              <c:f>Arkusz1!$M$4:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>277.00016666666664</c:v>
+                  <c:v>37.900999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.001666666666665</c:v>
+                  <c:v>6.4099999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8500000000000005</c:v>
+                  <c:v>5.2200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.25</c:v>
+                  <c:v>4.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.833333333333333</c:v>
+                  <c:v>4.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.833333333333333</c:v>
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.00">
+                  <c:v>6.6599999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,7 +648,854 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>błąd średniokwadratowy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> ni=0,05</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>błąd średniokwadratowy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0A3A-49AF-A47F-4E37D5D1DDD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="506707688"/>
+        <c:axId val="506702112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="506707688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506702112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="506702112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506707688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>błąd średniokwadratowy ni=0,01</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>błąd średniokwadratowy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$E$2:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97CC-4347-B914-6F52689EB7A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="335411528"/>
+        <c:axId val="335411856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="335411528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335411856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="335411856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335411528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1085,19 +2038,1051 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>183930</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>11168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>341586</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>177362</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1118,6 +3103,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1423987</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8E304F-3681-4383-8145-B600ECB033DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1433512</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516E6620-09AA-4B61-A83F-19F60F064D0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1423,225 +3485,799 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3EA9E8-1FEA-450C-8B92-CA6B7CAC5B3B}">
-  <dimension ref="C2:I10"/>
+  <dimension ref="C2:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I10"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>349</v>
-      </c>
-      <c r="E4" s="3">
-        <v>291</v>
-      </c>
-      <c r="F4" s="3">
-        <v>435</v>
-      </c>
-      <c r="G4" s="3">
-        <v>314</v>
-      </c>
-      <c r="H4" s="3">
-        <v>273</v>
-      </c>
-      <c r="I4" s="4">
-        <f>AVERAGE(C4:H4)</f>
-        <v>277.00016666666664</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
         <v>0.01</v>
       </c>
-      <c r="D5" s="3">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D4" s="4">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4">
+        <v>51</v>
+      </c>
+      <c r="F4" s="4">
+        <v>51</v>
+      </c>
+      <c r="G4" s="4">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4">
+        <v>37</v>
+      </c>
+      <c r="I4" s="10">
+        <v>37</v>
+      </c>
+      <c r="J4" s="10">
         <v>45</v>
       </c>
-      <c r="G5" s="3">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3">
-        <v>30</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" ref="I5:I10" si="0">AVERAGE(C5:H5)</f>
-        <v>30.001666666666665</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
+      <c r="K4" s="4">
+        <v>9</v>
+      </c>
+      <c r="L4" s="4">
+        <v>66</v>
+      </c>
+      <c r="M4" s="5">
+        <f>AVERAGE(C4:L4)</f>
+        <v>37.900999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
         <v>0.1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>6</v>
+      </c>
+      <c r="I5" s="10">
+        <v>12</v>
+      </c>
+      <c r="J5" s="10">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>6</v>
+      </c>
+      <c r="L5" s="4">
+        <v>6</v>
+      </c>
+      <c r="M5" s="5">
+        <f>AVERAGE(C5:L5)</f>
+        <v>6.4099999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
         <v>7</v>
       </c>
-      <c r="E6" s="3">
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="10">
+        <v>5</v>
+      </c>
+      <c r="J6" s="10">
         <v>7</v>
       </c>
-      <c r="F6" s="3">
+      <c r="K6" s="4">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5">
+        <f>AVERAGE(C6:L6)</f>
+        <v>5.2200000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>7</v>
+      </c>
+      <c r="G7" s="7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="G6" s="3">
+      <c r="I7" s="11">
+        <v>6</v>
+      </c>
+      <c r="J7" s="11">
+        <v>4</v>
+      </c>
+      <c r="K7" s="7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="7">
+        <v>4</v>
+      </c>
+      <c r="M7" s="5">
+        <f>AVERAGE(C7:L7)</f>
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10">
         <v>7</v>
       </c>
-      <c r="H6" s="3">
-        <v>6</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="0"/>
-        <v>5.8500000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="2">
+      <c r="J8" s="10">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>8</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4</v>
+      </c>
+      <c r="M8" s="5">
+        <f>AVERAGE(C8:L8)</f>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
         <v>0.5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E9" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="I9" s="10">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10">
+        <v>9</v>
+      </c>
+      <c r="K9" s="4">
+        <v>9</v>
+      </c>
+      <c r="L9" s="4">
+        <v>10</v>
+      </c>
+      <c r="M9" s="5">
+        <f>AVERAGE(C9:L9)</f>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4</v>
+      </c>
+      <c r="I10" s="10">
+        <v>8</v>
+      </c>
+      <c r="J10" s="10">
         <v>5</v>
       </c>
-      <c r="H7" s="3">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="0"/>
-        <v>4.833333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1666666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="0"/>
-        <v>4.833333333333333</v>
+      <c r="K10" s="4">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4">
+        <v>9</v>
+      </c>
+      <c r="M10" s="6">
+        <f>AVERAGE(C10:L10)</f>
+        <v>6.6599999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCA125B-C64D-4DE8-8F42-C8ECE27B1C29}">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/lab1/Zeszyt1.xlsx
+++ b/lab1/Zeszyt1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="16395" windowHeight="8100" activeTab="1" xr2:uid="{18495AA2-00CE-48F9-ADB1-A2F9DF24078A}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="16395" windowHeight="8100" xr2:uid="{18495AA2-00CE-48F9-ADB1-A2F9DF24078A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -223,7 +231,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -238,6 +245,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -454,25 +462,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>37.900999999999996</c:v>
+                  <c:v>42.111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4099999999999993</c:v>
+                  <c:v>7.1111111111111107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2200000000000006</c:v>
+                  <c:v>5.7777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.43</c:v>
+                  <c:v>4.8888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.84</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.95</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="#,##0.00">
-                  <c:v>6.6599999999999993</c:v>
+                  <c:v>6.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3487,8 +3495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3EA9E8-1FEA-450C-8B92-CA6B7CAC5B3B}">
   <dimension ref="C2:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,51 +3508,51 @@
   <sheetData>
     <row r="2" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3567,10 +3575,10 @@
       <c r="H4" s="4">
         <v>37</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>37</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>45</v>
       </c>
       <c r="K4" s="4">
@@ -3580,8 +3588,8 @@
         <v>66</v>
       </c>
       <c r="M4" s="5">
-        <f>AVERAGE(C4:L4)</f>
-        <v>37.900999999999996</v>
+        <f>AVERAGE(D4:L4)</f>
+        <v>42.111111111111114</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
@@ -3603,10 +3611,10 @@
       <c r="H5" s="4">
         <v>6</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>12</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>4</v>
       </c>
       <c r="K5" s="4">
@@ -3616,8 +3624,8 @@
         <v>6</v>
       </c>
       <c r="M5" s="5">
-        <f>AVERAGE(C5:L5)</f>
-        <v>6.4099999999999993</v>
+        <f t="shared" ref="M5:M10" si="0">AVERAGE(D5:L5)</f>
+        <v>7.1111111111111107</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
@@ -3639,10 +3647,10 @@
       <c r="H6" s="4">
         <v>4</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>5</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>7</v>
       </c>
       <c r="K6" s="4">
@@ -3652,44 +3660,44 @@
         <v>3</v>
       </c>
       <c r="M6" s="5">
-        <f>AVERAGE(C6:L6)</f>
-        <v>5.2200000000000006</v>
+        <f t="shared" si="0"/>
+        <v>5.7777777777777777</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>7</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>8</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>6</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>4</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>3</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>4</v>
       </c>
       <c r="M7" s="5">
-        <f>AVERAGE(C7:L7)</f>
-        <v>4.43</v>
+        <f t="shared" si="0"/>
+        <v>4.8888888888888893</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
@@ -3711,10 +3719,10 @@
       <c r="H8" s="4">
         <v>2</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>7</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>5</v>
       </c>
       <c r="K8" s="4">
@@ -3724,8 +3732,8 @@
         <v>4</v>
       </c>
       <c r="M8" s="5">
-        <f>AVERAGE(C8:L8)</f>
-        <v>4.84</v>
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
@@ -3747,10 +3755,10 @@
       <c r="H9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>4</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>9</v>
       </c>
       <c r="K9" s="4">
@@ -3760,8 +3768,8 @@
         <v>10</v>
       </c>
       <c r="M9" s="5">
-        <f>AVERAGE(C9:L9)</f>
-        <v>5.95</v>
+        <f t="shared" si="0"/>
+        <v>6.5555555555555554</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
@@ -3783,10 +3791,10 @@
       <c r="H10" s="4">
         <v>4</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>8</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>5</v>
       </c>
       <c r="K10" s="4">
@@ -3795,9 +3803,9 @@
       <c r="L10" s="4">
         <v>9</v>
       </c>
-      <c r="M10" s="6">
-        <f>AVERAGE(C10:L10)</f>
-        <v>6.6599999999999993</v>
+      <c r="M10" s="5">
+        <f t="shared" si="0"/>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
@@ -3819,460 +3827,462 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCA125B-C64D-4DE8-8F42-C8ECE27B1C29}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="14"/>
+    <col min="5" max="5" width="22.28515625" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="14">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="14">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="14">
         <v>1.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="14">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <v>1.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="14">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="14">
         <v>0.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="14">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="14">
         <v>0.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="14">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="14">
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="14">
         <v>0.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="14">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="14">
         <v>0.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="14">
         <v>9</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="14">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="14">
         <v>10</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="14">
         <v>0.5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="14">
         <v>11</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="14">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="14">
         <v>12</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14">
+      <c r="D14" s="14">
         <v>13</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15">
+      <c r="D15" s="14">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16">
+      <c r="D16" s="14">
         <v>15</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17">
+      <c r="D17" s="14">
         <v>16</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18">
+      <c r="D18" s="14">
         <v>17</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19">
+      <c r="D19" s="14">
         <v>18</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20">
+      <c r="D20" s="14">
         <v>19</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21">
+      <c r="D21" s="14">
         <v>20</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22">
+      <c r="D22" s="14">
         <v>21</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23">
+      <c r="D23" s="14">
         <v>22</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24">
+      <c r="D24" s="14">
         <v>23</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25">
+      <c r="D25" s="14">
         <v>24</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26">
+      <c r="D26" s="14">
         <v>25</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27">
+      <c r="D27" s="14">
         <v>26</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28">
+      <c r="D28" s="14">
         <v>27</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29">
+      <c r="D29" s="14">
         <v>28</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30">
+      <c r="D30" s="14">
         <v>29</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31">
+      <c r="D31" s="14">
         <v>30</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32">
+      <c r="D32" s="14">
         <v>31</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33">
+      <c r="D33" s="14">
         <v>32</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34">
+      <c r="D34" s="14">
         <v>33</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35">
+      <c r="D35" s="14">
         <v>34</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36">
+      <c r="D36" s="14">
         <v>35</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37">
+      <c r="D37" s="14">
         <v>36</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38">
+      <c r="D38" s="14">
         <v>37</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39">
+      <c r="D39" s="14">
         <v>38</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40">
+      <c r="D40" s="14">
         <v>39</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41">
+      <c r="D41" s="14">
         <v>40</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42">
+      <c r="D42" s="14">
         <v>41</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43">
+      <c r="D43" s="14">
         <v>42</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D44">
+      <c r="D44" s="14">
         <v>43</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D45">
+      <c r="D45" s="14">
         <v>44</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D46">
+      <c r="D46" s="14">
         <v>45</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="14">
         <v>0</v>
       </c>
     </row>
